--- a/tests/fixtures/orderforms/pacbio_revio_sequencing_2.xlsx
+++ b/tests/fixtures/orderforms/pacbio_revio_sequencing_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDCD629F-0E38-0C4B-A5C1-802F2B6D7F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E740D0-686E-6540-BBBA-35AC0BB955DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="517">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -2017,9 +2017,6 @@
     <t>pacbiosample1</t>
   </si>
   <si>
-    <t>LWPBELB070</t>
-  </si>
-  <si>
     <t>pacbiosample2</t>
   </si>
   <si>
@@ -3810,8 +3807,8 @@
   </sheetPr>
   <dimension ref="A1:ALS395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -11104,7 +11101,7 @@
         <v>395</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E15" s="54" t="s">
         <v>39</v>
@@ -11129,14 +11126,14 @@
       </c>
       <c r="L15" s="43"/>
       <c r="M15" s="56" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N15" s="66" t="s">
         <v>44</v>
       </c>
       <c r="O15" s="40"/>
       <c r="P15" s="56" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q15"/>
       <c r="R15"/>
@@ -12131,7 +12128,7 @@
     </row>
     <row r="16" spans="1:1006" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="51" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B16" s="52" t="s">
         <v>40</v>
@@ -12140,7 +12137,7 @@
         <v>395</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E16" s="54" t="s">
         <v>46</v>
@@ -13161,7 +13158,7 @@
     </row>
     <row r="17" spans="1:1006" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="51" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>40</v>
@@ -13170,7 +13167,7 @@
         <v>395</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E17" s="54" t="s">
         <v>39</v>
@@ -14191,7 +14188,7 @@
     </row>
     <row r="18" spans="1:1006" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="51" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B18" s="52" t="s">
         <v>40</v>
@@ -14200,7 +14197,7 @@
         <v>395</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E18" s="54" t="s">
         <v>46</v>
@@ -15221,7 +15218,7 @@
     </row>
     <row r="19" spans="1:1006" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="51" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B19" s="52" t="s">
         <v>40</v>
@@ -15230,7 +15227,7 @@
         <v>395</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E19" s="54" t="s">
         <v>39</v>
